--- a/input_data/Time_calibration/Ponerinae_fossil_calibrations.xlsx
+++ b/input_data/Time_calibration/Ponerinae_fossil_calibrations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\input_data\Time_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025830B-043B-404B-99AA-6C78E2B4B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0D7F9-9A22-4183-A5E5-745937635F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ajnRiLKBC+n6WZ67ULvdyccqMOFGkWLl7qoLzex+ZW0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="sDw6wKJdl5UQuIZ1rzM+ye4bVgCnXg4sy803pQjl21A="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Fossil subfamily</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>Sampling time</t>
-  </si>
-  <si>
     <t>Deposit age</t>
   </si>
   <si>
@@ -60,37 +57,79 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Ambyloponinae</t>
-  </si>
-  <si>
-    <t>Prionopelta</t>
+    <t>Ponerinae</t>
+  </si>
+  <si>
+    <t>Odontoponera</t>
+  </si>
+  <si>
+    <t>pseudotransversa</t>
+  </si>
+  <si>
+    <t>Odontoponera_denticulata_EX2968_CASENT0267032,Mesoponera_afr05_D2394_CASENT0815823</t>
+  </si>
+  <si>
+    <t>Zhangpu amber</t>
+  </si>
+  <si>
+    <t>Perrichot (2022)</t>
+  </si>
+  <si>
+    <t>One species of Odontoponera from Zhangpu amber. Deposit age from Perrichot (2022)</t>
+  </si>
+  <si>
+    <t>Neoponera</t>
+  </si>
+  <si>
+    <t>vejestoria</t>
+  </si>
+  <si>
+    <t>Neoponera foetida species group</t>
+  </si>
+  <si>
+    <t>Neoponera_crenata_EX2451_CASENT0649900,Neoponera_foetida_EX2274_CASENT0633624</t>
+  </si>
+  <si>
+    <t>Dominican amber</t>
+  </si>
+  <si>
+    <t>15-26</t>
+  </si>
+  <si>
+    <t>Fiorentino et al. (2023)</t>
+  </si>
+  <si>
+    <t>One species of Neoponera from Dominican amber. Deposit age from Barden (2017).</t>
+  </si>
+  <si>
+    <t>Undescribed</t>
   </si>
   <si>
     <t>sp</t>
   </si>
   <si>
-    <t>Dominican amber</t>
-  </si>
-  <si>
-    <t>15-26</t>
-  </si>
-  <si>
-    <t>Wilson (1988)</t>
-  </si>
-  <si>
-    <t>One undescribed species of Prionopelta from Dominican amber. Deposit age from Barden (2017).</t>
-  </si>
-  <si>
-    <t>Amblyoponinae</t>
-  </si>
-  <si>
-    <t>Stigmatomma</t>
-  </si>
-  <si>
-    <t>groehni</t>
-  </si>
-  <si>
-    <t>Stigmatomma denticulatum group</t>
+    <t>Ponerini</t>
+  </si>
+  <si>
+    <t>Platythyrea_arnoldi_D2118_CASENT0842276,Diacamma_geometricum_EX2682_ZRC_ENT00047849</t>
+  </si>
+  <si>
+    <t>94-100</t>
+  </si>
+  <si>
+    <t>Boudinot et al. (2022)</t>
+  </si>
+  <si>
+    <t>One species of undescribed Ponerini from Myanmar amber. Deposit age from Barden (2017).</t>
+  </si>
+  <si>
+    <t>Ponera</t>
+  </si>
+  <si>
+    <t>mayri</t>
+  </si>
+  <si>
+    <t>Ponera_jtl001_EX2356_INB0003621410,Emeryopone_my01_D0990_CASENT0226984</t>
   </si>
   <si>
     <t>Baltic amber</t>
@@ -99,114 +138,6 @@
     <t>34-48</t>
   </si>
   <si>
-    <t>Dlussky (2009)</t>
-  </si>
-  <si>
-    <t>One species of Stigmatomma from Baltic amber. Broad deposit age range.</t>
-  </si>
-  <si>
-    <t>Agroecomyrmecinae</t>
-  </si>
-  <si>
-    <t>Agroecomyrmex</t>
-  </si>
-  <si>
-    <t>duisburgi</t>
-  </si>
-  <si>
-    <t>Tatuidris</t>
-  </si>
-  <si>
-    <t>Wheeler (1915)</t>
-  </si>
-  <si>
-    <t>One species of Agroecomyrmex from Baltic amber. Broad deposit age range.</t>
-  </si>
-  <si>
-    <t>Proceratiinae</t>
-  </si>
-  <si>
-    <t>Proceratium</t>
-  </si>
-  <si>
-    <t>eocenicum</t>
-  </si>
-  <si>
-    <t>(Proceratium,Probolomyrmex)</t>
-  </si>
-  <si>
-    <t>One species of Proceratium from Baltic amber. Broad deposit age range.</t>
-  </si>
-  <si>
-    <t>Bradoponera</t>
-  </si>
-  <si>
-    <t>meieri</t>
-  </si>
-  <si>
-    <t>Baroni Urbani and de Andrade (2003), Dlussky (2009)</t>
-  </si>
-  <si>
-    <t>Four species of Bradoponera from Baltic amber. Broad deposit age range.</t>
-  </si>
-  <si>
-    <t>Ponerinae</t>
-  </si>
-  <si>
-    <t>Odontoponera</t>
-  </si>
-  <si>
-    <t>pseudotransversa</t>
-  </si>
-  <si>
-    <t>Zhangpu amber</t>
-  </si>
-  <si>
-    <t>Perrichot (2022)</t>
-  </si>
-  <si>
-    <t>One species of Odontoponera from Zhangpu amber. Deposit age from Perrichot (2022)</t>
-  </si>
-  <si>
-    <t>Neoponera</t>
-  </si>
-  <si>
-    <t>vejestoria</t>
-  </si>
-  <si>
-    <t>Neoponera foetida species group</t>
-  </si>
-  <si>
-    <t>Fiorentino et al. (2023)</t>
-  </si>
-  <si>
-    <t>One species of Neoponera from Dominican amber. Deposit age from Barden (2017).</t>
-  </si>
-  <si>
-    <t>Platythyrea</t>
-  </si>
-  <si>
-    <t>dlusskyi</t>
-  </si>
-  <si>
-    <t>Oise amber</t>
-  </si>
-  <si>
-    <t>52-55</t>
-  </si>
-  <si>
-    <t>Aria et al. (2011)</t>
-  </si>
-  <si>
-    <t>One species of Platythyrea from Oise amber. Deposit age from Barden (2017).</t>
-  </si>
-  <si>
-    <t>Ponera</t>
-  </si>
-  <si>
-    <t>mayri</t>
-  </si>
-  <si>
     <t>Dlussky (2009), Perkovsky (2016)</t>
   </si>
   <si>
@@ -219,6 +150,9 @@
     <t>atavia</t>
   </si>
   <si>
+    <t>Hypoponera_exigua_EX2769_CASENT0226547,Centromyrmex_hamulatus_EX2669_ZRC_ENT00047844</t>
+  </si>
+  <si>
     <t>Mayr (1868), Perkovsky (2016)</t>
   </si>
   <si>
@@ -234,6 +168,9 @@
     <t>Odontomachus haematodus species group</t>
   </si>
   <si>
+    <t>Odontomachus_hastatus_EX2290_CASENT0649099,Odontomachus_haematodus_EX2301_CASENT0649088</t>
+  </si>
+  <si>
     <t>de Andrade (1994), Fernandes et al. (2021)</t>
   </si>
   <si>
@@ -249,6 +186,9 @@
     <t>Anochetus emarginatus species group</t>
   </si>
   <si>
+    <t>Anochetus_emarginatus_EX2286a_CASENT0646105,Anochetus_mayri_EX2271_CASENT0633416</t>
+  </si>
+  <si>
     <t>Eight species of Anochetus from Dominican amber. Deposit age from Barden (2017).</t>
   </si>
   <si>
@@ -258,17 +198,41 @@
     <t>** Alternative, more precise dating for Dominican Amber is 16 Ma (Iturralde-Vinent et al. 1996)</t>
   </si>
   <si>
-    <t>What is the unidentified Ponerinae male reported from Oise amber (Aria et al. 2011)</t>
-  </si>
-  <si>
-    <t>Ponerinae from Late Cretaceous of Myanmar? (Zheng et al. 2018) Maybe calibration for stem group Ponerini</t>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Andrade, M. L. D. (1994). Fossil Odontomachiti ants from the Dominican Republic (Amber Collection Stuttgart: Hymenoptera, Formicidae. VII: Odontomachiti). Stuttgarter Beiträge Zur Naturkunde. Serie B (Geologie Und Paläontologie), 199, 1–28.</t>
+  </si>
+  <si>
+    <t>Barden, P., and Grimaldi, D. (2014). A Diverse Ant Fauna from the Mid-Cretaceous of Myanmar (Hymenoptera: Formicidae). PLOS ONE, 9(4), e93627. https://doi.org/10.1371/journal.pone.0093627</t>
+  </si>
+  <si>
+    <t>Boudinot, B. E., Khouri, Z., Richter, A., Griebenow, Z. H., Kamp, T. van de, Perrichot, V., and Barden, P. (2022). Evolution and systematics of the Aculeata and kin (Hymenoptera), with emphasis on the ants (Formicoidea: †@@@idae fam. nov., Formicidae) (p. 2022.02.20.480183). bioRxiv. https://doi.org/10.1101/2022.02.20.480183</t>
+  </si>
+  <si>
+    <t>Dlussky, G. M. (2009). The ant subfamilies Ponerinae, Cerapachyinae, and Pseudomyrmecinae (Hymenoptera, Formicidae) in the Late Eocene Ambers of Europe. Paleontological Journal, 43(9), 1043–1086.</t>
+  </si>
+  <si>
+    <t>Fernandes, I. O., Larabee, F. J., Oliveira, M. L., Delabie, J. H. C., and Schultz, T. R. (2021). A global phylogenetic analysis of trap-jaw ants, Anochetus Mayr and Odontomachus Latreille (Hymenoptera: Formicidae: Ponerinae). Systematic Entomology, 46(3), 685–703. https://doi.org/10.1111/syen.12483</t>
+  </si>
+  <si>
+    <t>Mayr, G. (1868). Die Ameisen des baltischen Bernsteins. Beiträge Zur Naturkunde Preussens, 1, 1–102.</t>
+  </si>
+  <si>
+    <t>Perkovsky, E. E. (2016). Tropical and Holarctic Ants in Late Eocene Ambers. Vestnik Zoologii, 50(2), 111–122. https://doi.org/10.1515/vzoo-2016-0014</t>
+  </si>
+  <si>
+    <t>Perrichot, V. (2023). The first fossil occurrence of Odontoponera (Formicidae: Ponerinae), from Middle Miocene Zhangpu amber. Palaeoworld, 32(4), 693–698. https://doi.org/10.1016/j.palwor.2022.09.007</t>
+  </si>
+  <si>
+    <t>Kachin amber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,10 +243,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,8 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,11 +298,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +333,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2619375</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="0" cy="0"/>
     <xdr:pic>
@@ -575,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K952"/>
+  <dimension ref="A1:J941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -589,394 +577,327 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" customWidth="1"/>
-    <col min="11" max="11" width="79.140625" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="10" max="10" width="79.140625" customWidth="1"/>
+    <col min="11" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>46</v>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>57</v>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2" t="s">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
+      <c r="A19" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1897,17 +1818,6 @@
     <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
